--- a/ExportData/Data User1 Test20-15-04-2021.xlsx
+++ b/ExportData/Data User1 Test20-15-04-2021.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,10 @@
     <font>
       <name val="Calibri"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -50,7 +54,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -58,6 +62,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P3"/>
+  <dimension ref="A3:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +532,73 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>1:0:0</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ExportData/Data User1 Test20-15-04-2021.xlsx
+++ b/ExportData/Data User1 Test20-15-04-2021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P4"/>
+  <dimension ref="A3:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +538,16 @@
           <t>1:0:0</t>
         </is>
       </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
           <t>0.017</t>
@@ -596,6 +606,381 @@
       <c r="P4" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>1:0:15</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>59.76</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>2.016</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>2.016</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>8.066</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>8.066</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>0.104</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>0.414</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>30.9</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>1.413</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>5.651</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>1:0:30</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>0.117</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>0.467</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>31.9</t>
+        </is>
+      </c>
+      <c r="N6" s="3" t="inlineStr">
+        <is>
+          <t>1.633</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>6.532</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>32.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>1:0:45</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>0.114</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>0.456</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>32.8</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>1.636</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>6.543</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>1:0:0</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>0.075</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>0.075</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>4.500</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>4.500</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>0.022</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>1.349</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>0.327</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>19.648</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>1:0:15</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>60.49</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>0.111</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>0.443</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>1.639</t>
+        </is>
+      </c>
+      <c r="O9" s="3" t="inlineStr">
+        <is>
+          <t>6.556</t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>35.7</t>
         </is>
       </c>
     </row>

--- a/ExportData/Data User1 Test20-15-04-2021.xlsx
+++ b/ExportData/Data User1 Test20-15-04-2021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P9"/>
+  <dimension ref="A3:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>59.43</t>
+          <t>60.50</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -575,17 +575,17 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.241</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="N4" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.054</t>
         </is>
       </c>
       <c r="O4" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>3.258</t>
         </is>
       </c>
       <c r="P4" s="3" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>59.76</t>
+          <t>60.86</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2.016</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>2.016</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>8.066</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -652,37 +652,37 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>8.066</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.119</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>0.414</t>
+          <t>0.477</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>30.9</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>1.413</t>
+          <t>1.631</t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
         <is>
-          <t>5.651</t>
+          <t>6.522</t>
         </is>
       </c>
       <c r="P5" s="3" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>31.4</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>60.12</t>
+          <t>61.22</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>0.117</t>
+          <t>0.116</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>0.467</t>
+          <t>0.465</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="N6" s="3" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="O6" s="3" t="inlineStr">
         <is>
-          <t>6.532</t>
+          <t>6.533</t>
         </is>
       </c>
       <c r="P6" s="3" t="inlineStr">
         <is>
-          <t>32.6</t>
+          <t>32.8</t>
         </is>
       </c>
     </row>
@@ -769,6 +769,16 @@
           <t>1:0:45</t>
         </is>
       </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
           <t>2.250</t>
@@ -806,12 +816,12 @@
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>0.456</t>
+          <t>0.454</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="N7" s="3" t="inlineStr">
@@ -821,34 +831,34 @@
       </c>
       <c r="O7" s="3" t="inlineStr">
         <is>
-          <t>6.543</t>
+          <t>6.545</t>
         </is>
       </c>
       <c r="P7" s="3" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>34.2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>1:0:0</t>
+          <t>1:1:0</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>60.13</t>
+          <t>61.94</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -858,12 +868,12 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
@@ -873,49 +883,49 @@
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.112</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>1.349</t>
+          <t>0.446</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="N8" s="3" t="inlineStr">
         <is>
-          <t>0.327</t>
+          <t>1.638</t>
         </is>
       </c>
       <c r="O8" s="3" t="inlineStr">
         <is>
-          <t>19.648</t>
+          <t>6.553</t>
         </is>
       </c>
       <c r="P8" s="3" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>35.6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>1:0:15</t>
+          <t>1:1:15</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>60.49</t>
+          <t>62.30</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -955,32 +965,2255 @@
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>0.128</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>0.443</t>
+          <t>0.512</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="N9" s="3" t="inlineStr">
         <is>
-          <t>1.639</t>
+          <t>1.622</t>
         </is>
       </c>
       <c r="O9" s="3" t="inlineStr">
         <is>
-          <t>6.556</t>
+          <t>6.487</t>
         </is>
       </c>
       <c r="P9" s="3" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>1:1:30</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>62.66</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>0.124</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>0.498</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>36.1</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>1.625</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
+          <t>6.501</t>
+        </is>
+      </c>
+      <c r="P10" s="3" t="inlineStr">
+        <is>
+          <t>38.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>1:1:45</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>63.02</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>0.121</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>0.484</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>37.1</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>1.629</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>6.515</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>39.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>1:2:0</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>63.38</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>0.118</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>0.474</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>38.1</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>1.631</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="inlineStr">
+        <is>
+          <t>6.525</t>
+        </is>
+      </c>
+      <c r="P12" s="3" t="inlineStr">
+        <is>
+          <t>41.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>1:2:15</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>63.74</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>0.140</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>0.560</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>39.3</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>1.610</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
+          <t>6.439</t>
+        </is>
+      </c>
+      <c r="P13" s="3" t="inlineStr">
+        <is>
+          <t>42.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>1:2:30</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>0.540</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>40.5</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>1.615</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t>6.459</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>43.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>1:2:45</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>64.46</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>0.522</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>41.6</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>1.619</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>6.477</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>1:3:0</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>0.127</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>0.508</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>42.7</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t>1.623</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="inlineStr">
+        <is>
+          <t>6.491</t>
+        </is>
+      </c>
+      <c r="P16" s="3" t="inlineStr">
+        <is>
+          <t>46.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>1:3:15</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>0.157</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>0.630</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="N17" s="3" t="inlineStr">
+        <is>
+          <t>1.592</t>
+        </is>
+      </c>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>6.369</t>
+        </is>
+      </c>
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>1:3:30</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>65.54</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I18" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>0.150</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="inlineStr">
+        <is>
+          <t>0.601</t>
+        </is>
+      </c>
+      <c r="M18" s="3" t="inlineStr">
+        <is>
+          <t>45.3</t>
+        </is>
+      </c>
+      <c r="N18" s="3" t="inlineStr">
+        <is>
+          <t>1.599</t>
+        </is>
+      </c>
+      <c r="O18" s="3" t="inlineStr">
+        <is>
+          <t>6.398</t>
+        </is>
+      </c>
+      <c r="P18" s="3" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>1:3:45</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>0.144</t>
+        </is>
+      </c>
+      <c r="L19" s="3" t="inlineStr">
+        <is>
+          <t>0.574</t>
+        </is>
+      </c>
+      <c r="M19" s="3" t="inlineStr">
+        <is>
+          <t>46.5</t>
+        </is>
+      </c>
+      <c r="N19" s="3" t="inlineStr">
+        <is>
+          <t>1.606</t>
+        </is>
+      </c>
+      <c r="O19" s="3" t="inlineStr">
+        <is>
+          <t>6.425</t>
+        </is>
+      </c>
+      <c r="P19" s="3" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>1:4:0</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>66.26</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I20" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>0.139</t>
+        </is>
+      </c>
+      <c r="L20" s="3" t="inlineStr">
+        <is>
+          <t>0.556</t>
+        </is>
+      </c>
+      <c r="M20" s="3" t="inlineStr">
+        <is>
+          <t>47.7</t>
+        </is>
+      </c>
+      <c r="N20" s="3" t="inlineStr">
+        <is>
+          <t>1.611</t>
+        </is>
+      </c>
+      <c r="O20" s="3" t="inlineStr">
+        <is>
+          <t>6.443</t>
+        </is>
+      </c>
+      <c r="P20" s="3" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>1:4:15</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I21" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>0.187</t>
+        </is>
+      </c>
+      <c r="L21" s="3" t="inlineStr">
+        <is>
+          <t>0.748</t>
+        </is>
+      </c>
+      <c r="M21" s="3" t="inlineStr">
+        <is>
+          <t>49.3</t>
+        </is>
+      </c>
+      <c r="N21" s="3" t="inlineStr">
+        <is>
+          <t>1.563</t>
+        </is>
+      </c>
+      <c r="O21" s="3" t="inlineStr">
+        <is>
+          <t>6.251</t>
+        </is>
+      </c>
+      <c r="P21" s="3" t="inlineStr">
+        <is>
+          <t>53.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>1:4:30</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>0.175</t>
+        </is>
+      </c>
+      <c r="L22" s="3" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="M22" s="3" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="N22" s="3" t="inlineStr">
+        <is>
+          <t>1.575</t>
+        </is>
+      </c>
+      <c r="O22" s="3" t="inlineStr">
+        <is>
+          <t>6.299</t>
+        </is>
+      </c>
+      <c r="P22" s="3" t="inlineStr">
+        <is>
+          <t>54.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>1:4:45</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>67.34</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr">
+        <is>
+          <t>0.164</t>
+        </is>
+      </c>
+      <c r="L23" s="3" t="inlineStr">
+        <is>
+          <t>0.654</t>
+        </is>
+      </c>
+      <c r="M23" s="3" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
+      <c r="N23" s="3" t="inlineStr">
+        <is>
+          <t>1.586</t>
+        </is>
+      </c>
+      <c r="O23" s="3" t="inlineStr">
+        <is>
+          <t>6.345</t>
+        </is>
+      </c>
+      <c r="P23" s="3" t="inlineStr">
+        <is>
+          <t>56.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>1:5:0</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I24" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>0.157</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="inlineStr">
+        <is>
+          <t>0.628</t>
+        </is>
+      </c>
+      <c r="M24" s="3" t="inlineStr">
+        <is>
+          <t>53.5</t>
+        </is>
+      </c>
+      <c r="N24" s="3" t="inlineStr">
+        <is>
+          <t>1.593</t>
+        </is>
+      </c>
+      <c r="O24" s="3" t="inlineStr">
+        <is>
+          <t>6.371</t>
+        </is>
+      </c>
+      <c r="P24" s="3" t="inlineStr">
+        <is>
+          <t>57.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>1:5:15</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr">
+        <is>
+          <t>0.256</t>
+        </is>
+      </c>
+      <c r="L25" s="3" t="inlineStr">
+        <is>
+          <t>1.025</t>
+        </is>
+      </c>
+      <c r="M25" s="3" t="inlineStr">
+        <is>
+          <t>55.7</t>
+        </is>
+      </c>
+      <c r="N25" s="3" t="inlineStr">
+        <is>
+          <t>1.493</t>
+        </is>
+      </c>
+      <c r="O25" s="3" t="inlineStr">
+        <is>
+          <t>5.974</t>
+        </is>
+      </c>
+      <c r="P25" s="3" t="inlineStr">
+        <is>
+          <t>58.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>1:5:30</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>68.42</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>0.227</t>
+        </is>
+      </c>
+      <c r="L26" s="3" t="inlineStr">
+        <is>
+          <t>0.906</t>
+        </is>
+      </c>
+      <c r="M26" s="3" t="inlineStr">
+        <is>
+          <t>57.6</t>
+        </is>
+      </c>
+      <c r="N26" s="3" t="inlineStr">
+        <is>
+          <t>1.523</t>
+        </is>
+      </c>
+      <c r="O26" s="3" t="inlineStr">
+        <is>
+          <t>6.092</t>
+        </is>
+      </c>
+      <c r="P26" s="3" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>1:5:45</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>2.250</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>8.999</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr">
+        <is>
+          <t>0.199</t>
+        </is>
+      </c>
+      <c r="L27" s="3" t="inlineStr">
+        <is>
+          <t>0.798</t>
+        </is>
+      </c>
+      <c r="M27" s="3" t="inlineStr">
+        <is>
+          <t>59.3</t>
+        </is>
+      </c>
+      <c r="N27" s="3" t="inlineStr">
+        <is>
+          <t>1.550</t>
+        </is>
+      </c>
+      <c r="O27" s="3" t="inlineStr">
+        <is>
+          <t>6.201</t>
+        </is>
+      </c>
+      <c r="P27" s="3" t="inlineStr">
+        <is>
+          <t>61.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>1:6:0</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>2.175</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>0.017</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>2.191</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>8.699</t>
+        </is>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>8.766</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>0.153</t>
+        </is>
+      </c>
+      <c r="L28" s="3" t="inlineStr">
+        <is>
+          <t>0.611</t>
+        </is>
+      </c>
+      <c r="M28" s="3" t="inlineStr">
+        <is>
+          <t>60.6</t>
+        </is>
+      </c>
+      <c r="N28" s="3" t="inlineStr">
+        <is>
+          <t>1.522</t>
+        </is>
+      </c>
+      <c r="O28" s="3" t="inlineStr">
+        <is>
+          <t>6.088</t>
+        </is>
+      </c>
+      <c r="P28" s="3" t="inlineStr">
+        <is>
+          <t>62.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>1:6:15</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>68.99</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>-0.467</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>0.967</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>-1.867</t>
+        </is>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>3.867</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr">
+        <is>
+          <t>-0.967</t>
+        </is>
+      </c>
+      <c r="L29" s="3" t="inlineStr">
+        <is>
+          <t>-3.867</t>
+        </is>
+      </c>
+      <c r="M29" s="3" t="inlineStr">
+        <is>
+          <t>52.4</t>
+        </is>
+      </c>
+      <c r="N29" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O29" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P29" s="3" t="inlineStr">
+        <is>
+          <t>62.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>1:6:30</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>-0.500</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>-2.000</t>
+        </is>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>4.000</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="inlineStr">
+        <is>
+          <t>-4.000</t>
+        </is>
+      </c>
+      <c r="M30" s="3" t="inlineStr">
+        <is>
+          <t>43.9</t>
+        </is>
+      </c>
+      <c r="N30" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O30" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P30" s="3" t="inlineStr">
+        <is>
+          <t>62.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>1:6:45</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>68.69</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>-0.500</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>-2.000</t>
+        </is>
+      </c>
+      <c r="I31" s="3" t="inlineStr">
+        <is>
+          <t>4.000</t>
+        </is>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="L31" s="3" t="inlineStr">
+        <is>
+          <t>-4.000</t>
+        </is>
+      </c>
+      <c r="M31" s="3" t="inlineStr">
+        <is>
+          <t>35.4</t>
+        </is>
+      </c>
+      <c r="N31" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O31" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P31" s="3" t="inlineStr">
+        <is>
+          <t>62.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>1:7:0</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>-0.500</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>1.000</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr">
+        <is>
+          <t>-2.000</t>
+        </is>
+      </c>
+      <c r="I32" s="3" t="inlineStr">
+        <is>
+          <t>4.000</t>
+        </is>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>-0.992</t>
+        </is>
+      </c>
+      <c r="L32" s="3" t="inlineStr">
+        <is>
+          <t>-3.967</t>
+        </is>
+      </c>
+      <c r="M32" s="3" t="inlineStr">
+        <is>
+          <t>26.9</t>
+        </is>
+      </c>
+      <c r="N32" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O32" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P32" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>1:7:15</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>68.32</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>-0.733</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>1.233</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr">
+        <is>
+          <t>-2.933</t>
+        </is>
+      </c>
+      <c r="I33" s="3" t="inlineStr">
+        <is>
+          <t>4.933</t>
+        </is>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="K33" s="3" t="inlineStr">
+        <is>
+          <t>-0.983</t>
+        </is>
+      </c>
+      <c r="L33" s="3" t="inlineStr">
+        <is>
+          <t>-3.933</t>
+        </is>
+      </c>
+      <c r="M33" s="3" t="inlineStr">
+        <is>
+          <t>18.6</t>
+        </is>
+      </c>
+      <c r="N33" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O33" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P33" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>1:7:30</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>68.09</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>-0.22</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>-0.750</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>1.250</t>
+        </is>
+      </c>
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>-3.000</t>
+        </is>
+      </c>
+      <c r="I34" s="3" t="inlineStr">
+        <is>
+          <t>5.000</t>
+        </is>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="L34" s="3" t="inlineStr">
+        <is>
+          <t>-4.000</t>
+        </is>
+      </c>
+      <c r="M34" s="3" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="N34" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O34" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P34" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>1:7:45</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>-0.10</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>-0.350</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>0.850</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
+        <is>
+          <t>-1.400</t>
+        </is>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>3.400</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>-0.600</t>
+        </is>
+      </c>
+      <c r="L35" s="3" t="inlineStr">
+        <is>
+          <t>-2.400</t>
+        </is>
+      </c>
+      <c r="M35" s="3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N35" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O35" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P35" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>1:8:0</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>0.242</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>0.258</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>0.967</t>
+        </is>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>1.033</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M36" s="3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N36" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O36" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P36" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>1:8:15</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>68.06</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M37" s="3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N37" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O37" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P37" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>1:8:30</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>0.500</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>2.000</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="M38" s="3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N38" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="O38" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="P38" s="3" t="inlineStr">
+        <is>
+          <t>0.0</t>
         </is>
       </c>
     </row>
